--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Resouces</t>
   </si>
@@ -132,14 +132,17 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Stoffe/Philip</t>
+  </si>
+  <si>
+    <t>Fidde/Manne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +176,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -416,6 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,45 +569,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="92238208"/>
-        <c:axId val="92239744"/>
+        <c:axId val="126429824"/>
+        <c:axId val="126456192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92238208"/>
+        <c:axId val="126429824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92239744"/>
+        <c:crossAx val="126456192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92239744"/>
+        <c:axId val="126456192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +614,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92238208"/>
+        <c:crossAx val="126429824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -615,10 +625,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737521"/>
-          <c:y val="0.43017169728783911"/>
+          <c:x val="0.7035820209973751"/>
+          <c:y val="0.43017169728783922"/>
           <c:w val="0.28934631459510268"/>
-          <c:h val="0.31366825900341805"/>
+          <c:h val="0.3136682590034181"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -627,7 +637,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -773,27 +783,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="97618944"/>
-        <c:axId val="97637120"/>
+        <c:axId val="70772224"/>
+        <c:axId val="70773760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97618944"/>
+        <c:axId val="70772224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97637120"/>
+        <c:crossAx val="70773760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97637120"/>
+        <c:axId val="70773760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +810,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97618944"/>
+        <c:crossAx val="70772224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -814,7 +823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1390,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,7 +1683,9 @@
       <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="F18" s="17">
         <v>3</v>
       </c>
@@ -1728,8 +1739,8 @@
       <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>2</v>
+      <c r="E20" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="17">
         <v>2</v>
@@ -1758,7 +1769,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F21" s="17">
         <v>2</v>
@@ -1767,16 +1778,16 @@
         <v>2</v>
       </c>
       <c r="H21" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:11">
@@ -1786,8 +1797,8 @@
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>38</v>
+      <c r="E22" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="17">
         <v>2</v>
@@ -1815,8 +1826,8 @@
       <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>10</v>
+      <c r="E23" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F23" s="17">
         <v>5</v>
@@ -1825,16 +1836,16 @@
         <v>5</v>
       </c>
       <c r="H23" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K23" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -1844,9 +1855,7 @@
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="E24" s="31"/>
       <c r="F24" s="17">
         <v>2</v>
       </c>
@@ -1880,19 +1889,19 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J25" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K25" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:11">
@@ -1909,19 +1918,19 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J26" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K26" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="15.75" thickBot="1">
@@ -1958,23 +1967,23 @@
       </c>
       <c r="G28" s="13">
         <f t="shared" ref="G28:K28" si="0">SUM(G18:G27)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I28" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:11">
@@ -1998,7 +2007,7 @@
       </c>
       <c r="E32">
         <f>G28</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -2011,7 +2020,7 @@
       </c>
       <c r="E33">
         <f>H28</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -2024,7 +2033,7 @@
       </c>
       <c r="E34">
         <f>I28</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -2037,7 +2046,7 @@
       </c>
       <c r="E35">
         <f>J28</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -2050,7 +2059,7 @@
       </c>
       <c r="E36">
         <f>K28</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="3:5">

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -572,41 +572,41 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126429824"/>
-        <c:axId val="126456192"/>
+        <c:axId val="84620800"/>
+        <c:axId val="84622336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126429824"/>
+        <c:axId val="84620800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126456192"/>
+        <c:crossAx val="84622336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126456192"/>
+        <c:axId val="84622336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +614,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126429824"/>
+        <c:crossAx val="84620800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -625,10 +625,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7035820209973751"/>
-          <c:y val="0.43017169728783922"/>
+          <c:x val="0.70358202099737499"/>
+          <c:y val="0.43017169728783933"/>
           <c:w val="0.28934631459510268"/>
-          <c:h val="0.3136682590034181"/>
+          <c:h val="0.31366825900341816"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -637,7 +637,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -784,25 +784,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70772224"/>
-        <c:axId val="70773760"/>
+        <c:axId val="87985536"/>
+        <c:axId val="88003712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70772224"/>
+        <c:axId val="87985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70773760"/>
+        <c:crossAx val="88003712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70773760"/>
+        <c:axId val="88003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +810,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70772224"/>
+        <c:crossAx val="87985536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -823,7 +823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1693,16 +1693,16 @@
         <v>3</v>
       </c>
       <c r="H18" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -1749,16 +1749,16 @@
         <v>2</v>
       </c>
       <c r="H20" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:11">
@@ -1807,16 +1807,16 @@
         <v>2</v>
       </c>
       <c r="H22" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:11">
@@ -1836,16 +1836,16 @@
         <v>5</v>
       </c>
       <c r="H23" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -1971,19 +1971,19 @@
       </c>
       <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I28" s="13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="3:11">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="E33">
         <f>H28</f>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E34">
         <f>I28</f>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E35">
         <f>J28</f>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="E36">
         <f>K28</f>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="3:5">

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Resouces</t>
   </si>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +176,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -426,7 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1855,7 +1847,9 @@
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" s="17">
         <v>2</v>
       </c>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>Resouces</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Fidde/Manne</t>
+  </si>
+  <si>
+    <t>Magnus</t>
   </si>
 </sst>
 </file>
@@ -567,38 +570,38 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84620800"/>
-        <c:axId val="84622336"/>
+        <c:axId val="91436544"/>
+        <c:axId val="91438080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84620800"/>
+        <c:axId val="91436544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84622336"/>
+        <c:crossAx val="91438080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84622336"/>
+        <c:axId val="91438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +609,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84620800"/>
+        <c:crossAx val="91436544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -617,10 +620,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737499"/>
-          <c:y val="0.43017169728783933"/>
+          <c:x val="0.70358202099737477"/>
+          <c:y val="0.43017169728783955"/>
           <c:w val="0.28934631459510268"/>
-          <c:h val="0.31366825900341816"/>
+          <c:h val="0.31366825900341827"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -629,7 +632,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -776,25 +779,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87985536"/>
-        <c:axId val="88003712"/>
+        <c:axId val="93490560"/>
+        <c:axId val="93508736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87985536"/>
+        <c:axId val="93490560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88003712"/>
+        <c:crossAx val="93508736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88003712"/>
+        <c:axId val="93508736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +805,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87985536"/>
+        <c:crossAx val="93490560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -815,7 +818,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1391,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="10" spans="3:11">
       <c r="F10" s="25" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
@@ -1688,13 +1691,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -1704,7 +1707,9 @@
       <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="F19" s="17">
         <v>1</v>
       </c>
@@ -1715,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K19" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="3:11">
@@ -1744,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K20" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="3:11">
@@ -1831,13 +1836,13 @@
         <v>3</v>
       </c>
       <c r="I23" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="3:11">
@@ -1860,13 +1865,13 @@
         <v>2</v>
       </c>
       <c r="I24" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:11">
@@ -1945,13 +1950,13 @@
         <v>6</v>
       </c>
       <c r="I27" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K27" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="3:11">
@@ -1969,15 +1974,15 @@
       </c>
       <c r="I28" s="13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="3:11">
@@ -2027,7 +2032,7 @@
       </c>
       <c r="E34">
         <f>I28</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -2040,7 +2045,7 @@
       </c>
       <c r="E35">
         <f>J28</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -2053,7 +2058,7 @@
       </c>
       <c r="E36">
         <f>K28</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="3:5">

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="2" r:id="rId1"/>
@@ -583,25 +583,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91436544"/>
-        <c:axId val="91438080"/>
+        <c:axId val="82720256"/>
+        <c:axId val="82721792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91436544"/>
+        <c:axId val="82720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91438080"/>
+        <c:crossAx val="82721792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91438080"/>
+        <c:axId val="82721792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +609,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91436544"/>
+        <c:crossAx val="82720256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -620,10 +620,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737477"/>
-          <c:y val="0.43017169728783955"/>
+          <c:x val="0.70358202099737466"/>
+          <c:y val="0.43017169728783966"/>
           <c:w val="0.28934631459510268"/>
-          <c:h val="0.31366825900341827"/>
+          <c:h val="0.31366825900341833"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -632,7 +632,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -779,25 +779,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93490560"/>
-        <c:axId val="93508736"/>
+        <c:axId val="57642368"/>
+        <c:axId val="57660544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93490560"/>
+        <c:axId val="57642368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93508736"/>
+        <c:crossAx val="57660544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93508736"/>
+        <c:axId val="57660544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,20 +805,21 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93490560"/>
+        <c:crossAx val="57642368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1394,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2075,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C21:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="2" r:id="rId1"/>
-    <sheet name="Sprint1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Resouces</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Magnus</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -422,6 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +465,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint1!$D$31</c:f>
+              <c:f>Sprint2!$D$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -469,31 +479,31 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint1!$C$32:$C$36</c:f>
+              <c:f>Sprint2!$C$45:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41316</c:v>
+                  <c:v>41323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41317</c:v>
+                  <c:v>41324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41318</c:v>
+                  <c:v>41325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41319</c:v>
+                  <c:v>41326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41320</c:v>
+                  <c:v>41327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint1!$D$32:$D$36</c:f>
+              <c:f>Sprint2!$D$45:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -521,7 +531,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint1!$E$31</c:f>
+              <c:f>Sprint2!$E$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -535,73 +545,73 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint1!$C$32:$C$36</c:f>
+              <c:f>Sprint2!$C$45:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41316</c:v>
+                  <c:v>41323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41317</c:v>
+                  <c:v>41324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41318</c:v>
+                  <c:v>41325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41319</c:v>
+                  <c:v>41326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41320</c:v>
+                  <c:v>41327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint1!$E$32:$E$36</c:f>
+              <c:f>Sprint2!$E$45:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82720256"/>
-        <c:axId val="82721792"/>
+        <c:axId val="86019456"/>
+        <c:axId val="86037632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82720256"/>
+        <c:axId val="86019456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82721792"/>
+        <c:crossAx val="86037632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82721792"/>
+        <c:axId val="86037632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,30 +619,21 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82720256"/>
+        <c:crossAx val="86019456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.70358202099737466"/>
-          <c:y val="0.43017169728783966"/>
-          <c:w val="0.28934631459510268"/>
-          <c:h val="0.31366825900341833"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -651,7 +652,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint2!$D$44</c:f>
+              <c:f>Sprint1!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -665,45 +666,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint2!$C$45:$C$49</c:f>
+              <c:f>Sprint1!$C$32:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41323</c:v>
+                  <c:v>41316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41324</c:v>
+                  <c:v>41317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41325</c:v>
+                  <c:v>41318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41326</c:v>
+                  <c:v>41319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41327</c:v>
+                  <c:v>41320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint2!$D$45:$D$49</c:f>
+              <c:f>Sprint1!$D$32:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -717,7 +718,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint2!$E$44</c:f>
+              <c:f>Sprint1!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -731,73 +732,73 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint2!$C$45:$C$49</c:f>
+              <c:f>Sprint1!$C$32:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41323</c:v>
+                  <c:v>41316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41324</c:v>
+                  <c:v>41317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41325</c:v>
+                  <c:v>41318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41326</c:v>
+                  <c:v>41319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41327</c:v>
+                  <c:v>41320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint2!$E$45:$E$49</c:f>
+              <c:f>Sprint1!$E$32:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57642368"/>
-        <c:axId val="57660544"/>
+        <c:axId val="84030976"/>
+        <c:axId val="84032512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57642368"/>
+        <c:axId val="84030976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57660544"/>
+        <c:crossAx val="84032512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57660544"/>
+        <c:axId val="84032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,21 +806,30 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57642368"/>
+        <c:crossAx val="84030976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70358202099737455"/>
+          <c:y val="0.43017169728783977"/>
+          <c:w val="0.28934631459510268"/>
+          <c:h val="0.31366825900341838"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -830,15 +840,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>44822</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>163605</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -865,15 +875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>44822</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1393,691 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:K37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="4" spans="3:11" ht="31.5">
-      <c r="F4" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" ht="31.5">
-      <c r="F5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>41316</v>
-      </c>
-      <c r="H5" s="7">
-        <v>41317</v>
-      </c>
-      <c r="I5" s="7">
-        <v>41318</v>
-      </c>
-      <c r="J5" s="7">
-        <v>41319</v>
-      </c>
-      <c r="K5" s="7">
-        <v>41320</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11">
-      <c r="F6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>6</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="F7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-      <c r="H7" s="6">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11">
-      <c r="F8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3</v>
-      </c>
-      <c r="H8" s="6">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="F9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-      <c r="H9" s="6">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6">
-        <v>3</v>
-      </c>
-      <c r="J9" s="6">
-        <v>6</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="F10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="F11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>6</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>6</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="F12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6">
-        <v>6</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="F13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3</v>
-      </c>
-      <c r="H13" s="6">
-        <v>6</v>
-      </c>
-      <c r="I13" s="6">
-        <v>3</v>
-      </c>
-      <c r="J13" s="6">
-        <v>6</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="F14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3</v>
-      </c>
-      <c r="H14" s="6">
-        <v>6</v>
-      </c>
-      <c r="I14" s="6">
-        <v>3</v>
-      </c>
-      <c r="J14" s="6">
-        <v>6</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" ht="24" thickBot="1">
-      <c r="G15" s="12">
-        <f>SUM(G6:K14)/6</f>
-        <v>27</v>
-      </c>
-      <c r="H15" s="12">
-        <f>SUM(H6:L14)/6</f>
-        <v>22.5</v>
-      </c>
-      <c r="I15" s="12">
-        <f>SUM(I6:M14)/6</f>
-        <v>13.5</v>
-      </c>
-      <c r="J15" s="12">
-        <f>SUM(J6:N14)/6</f>
-        <v>9</v>
-      </c>
-      <c r="K15" s="12">
-        <f>SUM(K6:O14)/6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" ht="24" thickBot="1">
-      <c r="C16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="16">
-        <v>41316</v>
-      </c>
-      <c r="H17" s="7">
-        <v>41317</v>
-      </c>
-      <c r="I17" s="7">
-        <v>41318</v>
-      </c>
-      <c r="J17" s="7">
-        <v>41319</v>
-      </c>
-      <c r="K17" s="7">
-        <v>41320</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="17">
-        <v>3</v>
-      </c>
-      <c r="G18" s="17">
-        <v>3</v>
-      </c>
-      <c r="H18" s="17">
-        <v>2</v>
-      </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17">
-        <v>1</v>
-      </c>
-      <c r="K18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="17">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="17">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="17">
-        <v>2</v>
-      </c>
-      <c r="G20" s="17">
-        <v>2</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="17">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="17">
-        <v>2</v>
-      </c>
-      <c r="G21" s="17">
-        <v>2</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="17">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="17">
-        <v>2</v>
-      </c>
-      <c r="G22" s="17">
-        <v>2</v>
-      </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="J22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="17">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="17">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17">
-        <v>5</v>
-      </c>
-      <c r="H23" s="17">
-        <v>3</v>
-      </c>
-      <c r="I23" s="17">
-        <v>2</v>
-      </c>
-      <c r="J23" s="17">
-        <v>2</v>
-      </c>
-      <c r="K23" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24" s="17">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="17">
-        <v>2</v>
-      </c>
-      <c r="G24" s="17">
-        <v>2</v>
-      </c>
-      <c r="H24" s="17">
-        <v>2</v>
-      </c>
-      <c r="I24" s="17">
-        <v>1</v>
-      </c>
-      <c r="J24" s="17">
-        <v>1</v>
-      </c>
-      <c r="K24" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="17">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="17">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C27" s="18">
-        <v>10</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18">
-        <v>6</v>
-      </c>
-      <c r="G27" s="18">
-        <v>6</v>
-      </c>
-      <c r="H27" s="18">
-        <v>6</v>
-      </c>
-      <c r="I27" s="18">
-        <v>4</v>
-      </c>
-      <c r="J27" s="18">
-        <v>4</v>
-      </c>
-      <c r="K27" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="F28">
-        <f>SUM(F18:F27)</f>
-        <v>24</v>
-      </c>
-      <c r="G28" s="13">
-        <f t="shared" ref="G28:K28" si="0">SUM(G18:G27)</f>
-        <v>23</v>
-      </c>
-      <c r="H28" s="13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I28" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K28" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
-      <c r="C31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11">
-      <c r="C32" s="1">
-        <v>41316</v>
-      </c>
-      <c r="D32">
-        <f>G15</f>
-        <v>27</v>
-      </c>
-      <c r="E32">
-        <f>G28</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="20">
-        <v>41317</v>
-      </c>
-      <c r="D33">
-        <f>H15</f>
-        <v>22.5</v>
-      </c>
-      <c r="E33">
-        <f>H28</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="20">
-        <v>41318</v>
-      </c>
-      <c r="D34">
-        <f>I15</f>
-        <v>13.5</v>
-      </c>
-      <c r="E34">
-        <f>I28</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="20">
-        <v>41319</v>
-      </c>
-      <c r="D35">
-        <f>J15</f>
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <f>J28</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="20">
-        <v>41320</v>
-      </c>
-      <c r="D36">
-        <f>K15</f>
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f>K28</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C21:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2673,4 +2002,675 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" ht="15.75" thickBot="1"/>
+    <row r="4" spans="3:11" ht="31.5">
+      <c r="F4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="31.5">
+      <c r="F5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>41316</v>
+      </c>
+      <c r="H5" s="7">
+        <v>41317</v>
+      </c>
+      <c r="I5" s="7">
+        <v>41318</v>
+      </c>
+      <c r="J5" s="7">
+        <v>41319</v>
+      </c>
+      <c r="K5" s="7">
+        <v>41320</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="F6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="F7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="F9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="F10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="F11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>6</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="F12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="F13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="24" thickBot="1">
+      <c r="G14" s="12">
+        <f>SUM(G6:K13)/6</f>
+        <v>24</v>
+      </c>
+      <c r="H14" s="12">
+        <f ca="1">SUM(H6:L14)/6</f>
+        <v>20</v>
+      </c>
+      <c r="I14" s="12">
+        <f ca="1">SUM(I6:M14)/6</f>
+        <v>12</v>
+      </c>
+      <c r="J14" s="12">
+        <f ca="1">SUM(J6:N14)/6</f>
+        <v>8</v>
+      </c>
+      <c r="K14" s="12">
+        <f ca="1">SUM(K6:O14)/6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="24" thickBot="1">
+      <c r="C16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="16">
+        <v>41316</v>
+      </c>
+      <c r="H17" s="7">
+        <v>41317</v>
+      </c>
+      <c r="I17" s="7">
+        <v>41318</v>
+      </c>
+      <c r="J17" s="7">
+        <v>41319</v>
+      </c>
+      <c r="K17" s="7">
+        <v>41320</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="17">
+        <v>3</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="17">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="17">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="17">
+        <v>2</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="17">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="17">
+        <v>2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>2</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="17">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="17">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="17">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17">
+        <v>5</v>
+      </c>
+      <c r="H23" s="17">
+        <v>3</v>
+      </c>
+      <c r="I23" s="17">
+        <v>2</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="17">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17">
+        <v>2</v>
+      </c>
+      <c r="H24" s="17">
+        <v>2</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="17">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="17">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C27" s="18">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="18">
+        <v>6</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6</v>
+      </c>
+      <c r="H27" s="18">
+        <v>6</v>
+      </c>
+      <c r="I27" s="18">
+        <v>4</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="D28" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F18:F27)</f>
+        <v>24</v>
+      </c>
+      <c r="G28" s="13">
+        <f>SUM(G18:G27)</f>
+        <v>23</v>
+      </c>
+      <c r="H28" s="13">
+        <f>SUM(H18:H27)</f>
+        <v>16</v>
+      </c>
+      <c r="I28" s="13">
+        <f>SUM(I18:I27)</f>
+        <v>10</v>
+      </c>
+      <c r="J28" s="13">
+        <f>SUM(J18:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f>SUM(K18:K27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="D29" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="1">
+        <v>41316</v>
+      </c>
+      <c r="D32">
+        <f>G14</f>
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <f>G28</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="20">
+        <v>41317</v>
+      </c>
+      <c r="D33">
+        <f ca="1">H14</f>
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <f>H28</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="20">
+        <v>41318</v>
+      </c>
+      <c r="D34">
+        <f ca="1">I14</f>
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <f>I28</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="20">
+        <v>41319</v>
+      </c>
+      <c r="D35">
+        <f ca="1">J14</f>
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <f>J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="20">
+        <v>41320</v>
+      </c>
+      <c r="D36">
+        <f ca="1">K14</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>K28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Resouces</t>
   </si>
@@ -172,6 +172,57 @@
   </si>
   <si>
     <t>Car collsion</t>
+  </si>
+  <si>
+    <t>Övning 4 Manne</t>
+  </si>
+  <si>
+    <t>Övning 4 Magnus</t>
+  </si>
+  <si>
+    <t>Övning 4 Emil</t>
+  </si>
+  <si>
+    <t>Övning 4 Stoffe</t>
+  </si>
+  <si>
+    <t>Övning 4 Fredrik</t>
+  </si>
+  <si>
+    <t>Övning 4 Philip</t>
+  </si>
+  <si>
+    <t>Övning 4 Tobias</t>
+  </si>
+  <si>
+    <t>Övning 4 Mattias</t>
+  </si>
+  <si>
+    <t>Lab 1 Manne</t>
+  </si>
+  <si>
+    <t>Lab 1 Magnus</t>
+  </si>
+  <si>
+    <t>Lab 1 Emil</t>
+  </si>
+  <si>
+    <t>Lab 1 Stoffe</t>
+  </si>
+  <si>
+    <t>Lab 1 Fredrik</t>
+  </si>
+  <si>
+    <t>Lab 1 Philip</t>
+  </si>
+  <si>
+    <t>Lab 1 Tobias</t>
+  </si>
+  <si>
+    <t>Lab 1 Mattias</t>
+  </si>
+  <si>
+    <t>Specialare:</t>
   </si>
 </sst>
 </file>
@@ -217,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +329,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -327,15 +384,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -722,117 +770,92 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,25 +1017,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86662528"/>
-        <c:axId val="86688896"/>
+        <c:axId val="94323840"/>
+        <c:axId val="94325376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86662528"/>
+        <c:axId val="94323840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86688896"/>
+        <c:crossAx val="94325376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86688896"/>
+        <c:axId val="94325376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1043,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86662528"/>
+        <c:crossAx val="94323840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1031,8 +1054,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737444"/>
-          <c:y val="0.43017169728783988"/>
+          <c:x val="0.70358202099737432"/>
+          <c:y val="0.43017169728783994"/>
           <c:w val="0.28934631459510268"/>
           <c:h val="0.31366825900341838"/>
         </c:manualLayout>
@@ -1043,7 +1066,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1059,8 +1082,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0652066016912419E-2"/>
-          <c:y val="8.9589878188303385E-2"/>
+          <c:x val="9.0652066016912475E-2"/>
+          <c:y val="8.9589878188303412E-2"/>
           <c:w val="0.50605584698953865"/>
           <c:h val="0.64173685981560002"/>
         </c:manualLayout>
@@ -1072,7 +1095,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint2!$D$47</c:f>
+              <c:f>Sprint2!$D$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1086,7 +1109,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint2!$C$48:$C$52</c:f>
+              <c:f>Sprint2!$C$69:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1110,21 +1133,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint2!$D$48:$D$52</c:f>
+              <c:f>Sprint2!$D$69:$D$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1138,7 +1161,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sprint2!$E$47</c:f>
+              <c:f>Sprint2!$E$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1152,7 +1175,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint2!$C$48:$C$52</c:f>
+              <c:f>Sprint2!$C$69:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1176,49 +1199,49 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint2!$E$48:$E$52</c:f>
+              <c:f>Sprint2!$E$69:$E$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85669376"/>
-        <c:axId val="85670912"/>
+        <c:axId val="94526464"/>
+        <c:axId val="94552832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85669376"/>
+        <c:axId val="94526464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85670912"/>
+        <c:crossAx val="94552832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85670912"/>
+        <c:axId val="94552832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1249,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85669376"/>
+        <c:crossAx val="94526464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1240,7 +1263,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1287,13 +1310,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>1121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>143996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1603,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1615,106 +1638,106 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="12">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="12">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>9</v>
       </c>
       <c r="C13" t="s">
@@ -1725,7 +1748,7 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -1736,13 +1759,13 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="18.75">
-      <c r="B15" s="12"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>11</v>
       </c>
       <c r="C16" t="s">
@@ -1753,7 +1776,7 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>12</v>
       </c>
       <c r="C17" t="s">
@@ -1764,13 +1787,13 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="12"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>14</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D19">
@@ -1778,10 +1801,10 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>15</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D20">
@@ -1789,10 +1812,10 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>16</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D21">
@@ -1803,7 +1826,7 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D22">
@@ -1814,7 +1837,7 @@
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D23">
@@ -1825,7 +1848,7 @@
       <c r="B24">
         <v>17</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D24">
@@ -1836,7 +1859,7 @@
       <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D25">
@@ -1847,7 +1870,7 @@
       <c r="B26">
         <v>19</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D26">
@@ -1869,9 +1892,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1879,218 +1902,218 @@
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" thickBot="1"/>
     <row r="4" spans="3:11" ht="32.25" thickBot="1">
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="31.5">
-      <c r="F5" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="48">
+      <c r="F5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="45">
         <v>41316</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="45">
         <v>41317</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="45">
         <v>41318</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="45">
         <v>41319</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="46">
         <v>41320</v>
       </c>
     </row>
     <row r="6" spans="3:11">
-      <c r="F6" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6">
-        <v>6</v>
-      </c>
-      <c r="I6" s="6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>6</v>
-      </c>
-      <c r="K6" s="51">
+      <c r="F6" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>6</v>
+      </c>
+      <c r="K6" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="F7" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
-      <c r="H7" s="6">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6</v>
-      </c>
-      <c r="K7" s="51">
+      <c r="F7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:11">
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="6">
-        <v>3</v>
-      </c>
-      <c r="H8" s="6">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>6</v>
-      </c>
-      <c r="K8" s="51">
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6</v>
+      </c>
+      <c r="K8" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="6">
-        <v>3</v>
-      </c>
-      <c r="H9" s="6">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6">
-        <v>3</v>
-      </c>
-      <c r="J9" s="6">
-        <v>6</v>
-      </c>
-      <c r="K9" s="51">
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6</v>
+      </c>
+      <c r="K9" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>6</v>
-      </c>
-      <c r="K10" s="51">
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6</v>
+      </c>
+      <c r="K10" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:11">
-      <c r="F11" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>6</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>6</v>
-      </c>
-      <c r="K11" s="51">
+      <c r="F11" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6</v>
+      </c>
+      <c r="K11" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:11">
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="6">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6">
-        <v>6</v>
-      </c>
-      <c r="K12" s="51">
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>6</v>
+      </c>
+      <c r="K12" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:11">
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="24">
-        <v>3</v>
-      </c>
-      <c r="H13" s="24">
-        <v>6</v>
-      </c>
-      <c r="I13" s="24">
-        <v>3</v>
-      </c>
-      <c r="J13" s="24">
-        <v>6</v>
-      </c>
-      <c r="K13" s="58">
+      <c r="G13" s="22">
+        <v>3</v>
+      </c>
+      <c r="H13" s="22">
+        <v>6</v>
+      </c>
+      <c r="I13" s="22">
+        <v>3</v>
+      </c>
+      <c r="J13" s="22">
+        <v>6</v>
+      </c>
+      <c r="K13" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="24" thickBot="1">
-      <c r="F14" s="60"/>
-      <c r="G14" s="61">
+      <c r="F14" s="57"/>
+      <c r="G14" s="58">
         <f>SUM(G6:K13)/6</f>
         <v>24</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="58">
         <f ca="1">SUM(H6:L14)/6</f>
         <v>20</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="58">
         <f ca="1">SUM(I6:M14)/6</f>
         <v>12</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="58">
         <f ca="1">SUM(J6:N14)/6</f>
         <v>8</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="59">
         <f ca="1">SUM(K6:O14)/6</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="24" thickBot="1">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="3:11" ht="15.75" thickBot="1">
       <c r="C17" s="2" t="s">
@@ -2102,22 +2125,22 @@
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="61">
         <v>41316</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="62">
         <v>41317</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="62">
         <v>41318</v>
       </c>
-      <c r="J17" s="65">
+      <c r="J17" s="62">
         <v>41319</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="63">
         <v>41320</v>
       </c>
     </row>
@@ -2128,412 +2151,412 @@
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="43">
-        <v>3</v>
-      </c>
-      <c r="G18" s="67">
-        <v>3</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="51">
+      <c r="F18" s="40">
+        <v>3</v>
+      </c>
+      <c r="G18" s="64">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="15">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="44">
-        <v>1</v>
-      </c>
-      <c r="G19" s="67">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="F19" s="41">
+        <v>1</v>
+      </c>
+      <c r="G19" s="64">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
         <v>0.5</v>
       </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="51">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="15">
-        <v>3</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="44">
-        <v>2</v>
-      </c>
-      <c r="G20" s="67">
-        <v>2</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="E20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="41">
+        <v>2</v>
+      </c>
+      <c r="G20" s="64">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
         <v>0.5</v>
       </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="51">
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="44">
-        <v>2</v>
-      </c>
-      <c r="G21" s="67">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="51">
+      <c r="F21" s="41">
+        <v>2</v>
+      </c>
+      <c r="G21" s="64">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>5</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="44">
-        <v>2</v>
-      </c>
-      <c r="G22" s="67">
-        <v>2</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="51">
+      <c r="E22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="41">
+        <v>2</v>
+      </c>
+      <c r="G22" s="64">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="15">
-        <v>6</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="13">
+        <v>6</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="41">
         <v>5</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="64">
         <v>5</v>
       </c>
-      <c r="H23" s="6">
-        <v>3</v>
-      </c>
-      <c r="I23" s="6">
-        <v>2</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="51">
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>7</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="44">
-        <v>2</v>
-      </c>
-      <c r="G24" s="67">
-        <v>2</v>
-      </c>
-      <c r="H24" s="6">
-        <v>2</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="51">
+      <c r="F24" s="41">
+        <v>2</v>
+      </c>
+      <c r="G24" s="64">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>8</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="41">
         <v>0.5</v>
       </c>
-      <c r="G25" s="67">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="51">
+      <c r="G25" s="64">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>9</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="44">
+      <c r="E26" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="41">
         <v>0.5</v>
       </c>
-      <c r="G26" s="67">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="51">
+      <c r="G26" s="64">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>10</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="44">
-        <v>6</v>
-      </c>
-      <c r="G27" s="67">
-        <v>6</v>
-      </c>
-      <c r="H27" s="6">
-        <v>6</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="F27" s="41">
+        <v>6</v>
+      </c>
+      <c r="G27" s="64">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4">
         <v>4</v>
       </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="51">
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="28">
+      <c r="C28" s="25">
         <v>15</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="45">
-        <v>1</v>
-      </c>
-      <c r="G28" s="68">
-        <v>1</v>
-      </c>
-      <c r="H28" s="29">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29">
-        <v>1</v>
-      </c>
-      <c r="J28" s="29">
-        <v>0</v>
-      </c>
-      <c r="K28" s="69">
+      <c r="F28" s="42">
+        <v>1</v>
+      </c>
+      <c r="G28" s="65">
+        <v>1</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1</v>
+      </c>
+      <c r="J28" s="26">
+        <v>0</v>
+      </c>
+      <c r="K28" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="28">
+      <c r="C29" s="25">
         <v>12</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="41">
         <v>0.5</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="64">
         <v>0.5</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="51">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C30" s="30">
+      <c r="C30" s="27">
         <v>16</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="43">
         <v>0.5</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="57">
         <v>0.5</v>
       </c>
-      <c r="H30" s="70">
+      <c r="H30" s="67">
         <v>0.5</v>
       </c>
-      <c r="I30" s="70">
+      <c r="I30" s="67">
         <v>0.5</v>
       </c>
-      <c r="J30" s="70">
-        <v>0</v>
-      </c>
-      <c r="K30" s="71">
+      <c r="J30" s="67">
+        <v>0</v>
+      </c>
+      <c r="K30" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:11">
-      <c r="D31" s="27"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="28"/>
       <c r="F31">
         <f>SUM(F18:F30)</f>
         <v>26</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="14">
         <f t="shared" ref="G31:K31" si="0">SUM(G18:G30)</f>
         <v>25</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="14">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2551,7 +2574,7 @@
       </c>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="17">
+      <c r="C40" s="15">
         <v>41317</v>
       </c>
       <c r="D40">
@@ -2564,7 +2587,7 @@
       </c>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="17">
+      <c r="C41" s="15">
         <v>41318</v>
       </c>
       <c r="D41">
@@ -2577,7 +2600,7 @@
       </c>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="17">
+      <c r="C42" s="15">
         <v>41319</v>
       </c>
       <c r="D42">
@@ -2590,7 +2613,7 @@
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="17">
+      <c r="C43" s="15">
         <v>41320</v>
       </c>
       <c r="D43">
@@ -2603,7 +2626,7 @@
       </c>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="17"/>
+      <c r="C44" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2614,16 +2637,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C21:K52"/>
+  <dimension ref="C21:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -2632,268 +2655,268 @@
   <sheetData>
     <row r="21" spans="3:11" ht="15.75" thickBot="1"/>
     <row r="22" spans="3:11" ht="31.5">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="3:11" ht="31.5">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
         <v>41323</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>41324</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>41325</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>41326</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>41327</v>
       </c>
     </row>
     <row r="24" spans="3:11">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="6">
-        <v>3</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>3</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4">
+        <v>6</v>
+      </c>
+      <c r="K24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="6">
-        <v>3</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="8" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="6">
-        <v>3</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>6</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="21" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="6">
-        <v>3</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>6</v>
+      </c>
+      <c r="K27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:11">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="22" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="6">
-        <v>3</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>3</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>6</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4">
+        <v>6</v>
+      </c>
+      <c r="K28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="6">
-        <v>3</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>3</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>6</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
+        <v>6</v>
+      </c>
+      <c r="K29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="18" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="6">
-        <v>3</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>3</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>6</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>6</v>
+      </c>
+      <c r="K30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="23" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="24">
-        <v>3</v>
-      </c>
-      <c r="H31" s="24">
-        <v>0</v>
-      </c>
-      <c r="I31" s="24">
-        <v>3</v>
-      </c>
-      <c r="J31" s="24">
-        <v>0</v>
-      </c>
-      <c r="K31" s="24">
+      <c r="G31" s="22">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>6</v>
+      </c>
+      <c r="I31" s="22">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>6</v>
+      </c>
+      <c r="K31" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="24" thickBot="1">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="26">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="23">
         <f>SUM(G24:K31)/6</f>
+        <v>24</v>
+      </c>
+      <c r="H32" s="23">
+        <f>SUM(H24:L31)/6</f>
+        <v>20</v>
+      </c>
+      <c r="I32" s="23">
+        <f>SUM(I24:M31)/6</f>
+        <v>12</v>
+      </c>
+      <c r="J32" s="23">
+        <f>SUM(J24:N31)/6</f>
         <v>8</v>
       </c>
-      <c r="H32" s="26">
-        <f ca="1">SUM(H24:L32)/6</f>
-        <v>4.5</v>
-      </c>
-      <c r="I32" s="26">
-        <f ca="1">SUM(I24:M32)/6</f>
-        <v>4.5</v>
-      </c>
-      <c r="J32" s="26">
-        <f ca="1">SUM(J24:N32)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="25">
-        <f ca="1">SUM(K24:O32)/6</f>
+      <c r="K32" s="23">
+        <f>SUM(K24:O31)/6</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="3:11" ht="24" thickBot="1">
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="3:11">
       <c r="C35" s="3" t="s">
@@ -2908,322 +2931,721 @@
       <c r="F35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="73">
+      <c r="G35" s="70">
         <v>41323</v>
       </c>
-      <c r="H35" s="73">
+      <c r="H35" s="70">
         <v>41324</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="70">
         <v>41325</v>
       </c>
-      <c r="J35" s="73">
+      <c r="J35" s="70">
         <v>41326</v>
       </c>
-      <c r="K35" s="74">
+      <c r="K35" s="71">
         <v>41327</v>
       </c>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="67">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="64">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1</v>
-      </c>
-      <c r="J36" s="6">
-        <v>1</v>
-      </c>
-      <c r="K36" s="51">
+      <c r="E36" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="67">
+      <c r="C37" s="64">
         <v>17</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>1.5</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <v>1.5</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="4">
         <v>1.5</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="4">
         <v>1.5</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="4">
         <v>1.5</v>
       </c>
-      <c r="K37" s="51">
+      <c r="K37" s="48">
         <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="67">
+      <c r="C38" s="64">
         <v>4</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6">
-        <v>1</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6">
-        <v>1</v>
-      </c>
-      <c r="J38" s="6">
-        <v>1</v>
-      </c>
-      <c r="K38" s="51">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="67">
+      <c r="C39" s="64">
         <v>5</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="6">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6">
-        <v>2</v>
-      </c>
-      <c r="H39" s="6">
-        <v>2</v>
-      </c>
-      <c r="I39" s="6">
-        <v>2</v>
-      </c>
-      <c r="J39" s="6">
-        <v>2</v>
-      </c>
-      <c r="K39" s="51">
+      <c r="E39" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="67">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="64">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6">
-        <v>2</v>
-      </c>
-      <c r="G40" s="6">
-        <v>2</v>
-      </c>
-      <c r="H40" s="6">
-        <v>2</v>
-      </c>
-      <c r="I40" s="6">
-        <v>2</v>
-      </c>
-      <c r="J40" s="6">
-        <v>2</v>
-      </c>
-      <c r="K40" s="51">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="75">
+      <c r="C41" s="72">
         <v>18</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29">
-        <v>2</v>
-      </c>
-      <c r="G41" s="29">
-        <v>2</v>
-      </c>
-      <c r="H41" s="29">
-        <v>2</v>
-      </c>
-      <c r="I41" s="29">
-        <v>2</v>
-      </c>
-      <c r="J41" s="29">
-        <v>2</v>
-      </c>
-      <c r="K41" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C42" s="76">
+      <c r="E41" s="73"/>
+      <c r="F41" s="73">
+        <v>2</v>
+      </c>
+      <c r="G41" s="73">
+        <v>2</v>
+      </c>
+      <c r="H41" s="73">
+        <v>2</v>
+      </c>
+      <c r="I41" s="73">
+        <v>2</v>
+      </c>
+      <c r="J41" s="73">
+        <v>2</v>
+      </c>
+      <c r="K41" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="65">
         <v>19</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="78">
-        <v>1</v>
-      </c>
-      <c r="G42" s="78">
-        <v>1</v>
-      </c>
-      <c r="H42" s="78">
-        <v>1</v>
-      </c>
-      <c r="I42" s="78">
-        <v>1</v>
-      </c>
-      <c r="J42" s="78">
-        <v>1</v>
-      </c>
-      <c r="K42" s="79">
+      <c r="E42" s="4"/>
+      <c r="F42" s="26">
+        <v>1</v>
+      </c>
+      <c r="G42" s="26">
+        <v>1</v>
+      </c>
+      <c r="H42" s="26">
+        <v>1</v>
+      </c>
+      <c r="I42" s="26">
+        <v>1</v>
+      </c>
+      <c r="J42" s="26">
+        <v>1</v>
+      </c>
+      <c r="K42" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="12">
-        <f>SUM(F36:F42)</f>
-        <v>10.5</v>
-      </c>
-      <c r="G43" s="16">
-        <f t="shared" ref="G43:K43" si="0">SUM(G36:G42)</f>
-        <v>10.5</v>
-      </c>
-      <c r="H43" s="16">
+      <c r="C43" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76">
+        <v>1</v>
+      </c>
+      <c r="G43" s="76">
+        <v>1</v>
+      </c>
+      <c r="H43" s="76">
+        <v>1</v>
+      </c>
+      <c r="I43" s="76">
+        <v>1</v>
+      </c>
+      <c r="J43" s="76">
+        <v>1</v>
+      </c>
+      <c r="K43" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="75"/>
+      <c r="D44" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76">
+        <v>1</v>
+      </c>
+      <c r="G44" s="76">
+        <v>1</v>
+      </c>
+      <c r="H44" s="76">
+        <v>1</v>
+      </c>
+      <c r="I44" s="76">
+        <v>1</v>
+      </c>
+      <c r="J44" s="76">
+        <v>1</v>
+      </c>
+      <c r="K44" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="75"/>
+      <c r="D45" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76">
+        <v>1</v>
+      </c>
+      <c r="G45" s="76">
+        <v>1</v>
+      </c>
+      <c r="H45" s="76">
+        <v>1</v>
+      </c>
+      <c r="I45" s="76">
+        <v>1</v>
+      </c>
+      <c r="J45" s="76">
+        <v>1</v>
+      </c>
+      <c r="K45" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" s="75"/>
+      <c r="D46" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76">
+        <v>1</v>
+      </c>
+      <c r="G46" s="76">
+        <v>1</v>
+      </c>
+      <c r="H46" s="76">
+        <v>1</v>
+      </c>
+      <c r="I46" s="76">
+        <v>1</v>
+      </c>
+      <c r="J46" s="76">
+        <v>1</v>
+      </c>
+      <c r="K46" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="75"/>
+      <c r="D47" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76">
+        <v>1</v>
+      </c>
+      <c r="G47" s="76">
+        <v>1</v>
+      </c>
+      <c r="H47" s="76">
+        <v>1</v>
+      </c>
+      <c r="I47" s="76">
+        <v>1</v>
+      </c>
+      <c r="J47" s="76">
+        <v>1</v>
+      </c>
+      <c r="K47" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="75"/>
+      <c r="D48" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76">
+        <v>1</v>
+      </c>
+      <c r="G48" s="76">
+        <v>1</v>
+      </c>
+      <c r="H48" s="76">
+        <v>1</v>
+      </c>
+      <c r="I48" s="76">
+        <v>1</v>
+      </c>
+      <c r="J48" s="76">
+        <v>1</v>
+      </c>
+      <c r="K48" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" s="75"/>
+      <c r="D49" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76">
+        <v>1</v>
+      </c>
+      <c r="G49" s="76">
+        <v>1</v>
+      </c>
+      <c r="H49" s="76">
+        <v>1</v>
+      </c>
+      <c r="I49" s="76">
+        <v>1</v>
+      </c>
+      <c r="J49" s="76">
+        <v>1</v>
+      </c>
+      <c r="K49" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="C50" s="75"/>
+      <c r="D50" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76">
+        <v>1</v>
+      </c>
+      <c r="G50" s="76">
+        <v>1</v>
+      </c>
+      <c r="H50" s="76">
+        <v>1</v>
+      </c>
+      <c r="I50" s="76">
+        <v>1</v>
+      </c>
+      <c r="J50" s="76">
+        <v>1</v>
+      </c>
+      <c r="K50" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11">
+      <c r="C51" s="75"/>
+      <c r="D51" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76">
+        <v>1</v>
+      </c>
+      <c r="G51" s="76">
+        <v>1</v>
+      </c>
+      <c r="H51" s="76">
+        <v>1</v>
+      </c>
+      <c r="I51" s="76">
+        <v>1</v>
+      </c>
+      <c r="J51" s="76">
+        <v>1</v>
+      </c>
+      <c r="K51" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11">
+      <c r="C52" s="75"/>
+      <c r="D52" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76">
+        <v>1</v>
+      </c>
+      <c r="G52" s="76">
+        <v>1</v>
+      </c>
+      <c r="H52" s="76">
+        <v>1</v>
+      </c>
+      <c r="I52" s="76">
+        <v>1</v>
+      </c>
+      <c r="J52" s="76">
+        <v>1</v>
+      </c>
+      <c r="K52" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11">
+      <c r="C53" s="75"/>
+      <c r="D53" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76">
+        <v>1</v>
+      </c>
+      <c r="G53" s="76">
+        <v>1</v>
+      </c>
+      <c r="H53" s="76">
+        <v>1</v>
+      </c>
+      <c r="I53" s="76">
+        <v>1</v>
+      </c>
+      <c r="J53" s="76">
+        <v>1</v>
+      </c>
+      <c r="K53" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11">
+      <c r="C54" s="75"/>
+      <c r="D54" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76">
+        <v>1</v>
+      </c>
+      <c r="G54" s="76">
+        <v>1</v>
+      </c>
+      <c r="H54" s="76">
+        <v>1</v>
+      </c>
+      <c r="I54" s="76">
+        <v>1</v>
+      </c>
+      <c r="J54" s="76">
+        <v>1</v>
+      </c>
+      <c r="K54" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="C55" s="75"/>
+      <c r="D55" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76">
+        <v>1</v>
+      </c>
+      <c r="G55" s="76">
+        <v>1</v>
+      </c>
+      <c r="H55" s="76">
+        <v>1</v>
+      </c>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
+      <c r="J55" s="76">
+        <v>1</v>
+      </c>
+      <c r="K55" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="C56" s="75"/>
+      <c r="D56" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76">
+        <v>1</v>
+      </c>
+      <c r="G56" s="76">
+        <v>1</v>
+      </c>
+      <c r="H56" s="76">
+        <v>1</v>
+      </c>
+      <c r="I56" s="76">
+        <v>1</v>
+      </c>
+      <c r="J56" s="76">
+        <v>1</v>
+      </c>
+      <c r="K56" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="C57" s="75"/>
+      <c r="D57" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76">
+        <v>1</v>
+      </c>
+      <c r="G57" s="76">
+        <v>1</v>
+      </c>
+      <c r="H57" s="76">
+        <v>1</v>
+      </c>
+      <c r="I57" s="76">
+        <v>1</v>
+      </c>
+      <c r="J57" s="76">
+        <v>1</v>
+      </c>
+      <c r="K57" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C58" s="78"/>
+      <c r="D58" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79">
+        <v>1</v>
+      </c>
+      <c r="G58" s="79">
+        <v>1</v>
+      </c>
+      <c r="H58" s="79">
+        <v>1</v>
+      </c>
+      <c r="I58" s="79">
+        <v>1</v>
+      </c>
+      <c r="J58" s="79">
+        <v>1</v>
+      </c>
+      <c r="K58" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11">
+      <c r="F59" s="10">
+        <f>SUM(F36:F58)</f>
+        <v>26.5</v>
+      </c>
+      <c r="G59" s="14">
+        <f t="shared" ref="G59:K59" si="0">SUM(G36:G58)</f>
+        <v>26.5</v>
+      </c>
+      <c r="H59" s="14">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="I43" s="16">
+        <v>26.5</v>
+      </c>
+      <c r="I59" s="14">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="J43" s="16">
+        <v>26.5</v>
+      </c>
+      <c r="J59" s="14">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="K43" s="16">
+        <v>26.5</v>
+      </c>
+      <c r="K59" s="14">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11">
-      <c r="C47" s="16" t="s">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D68" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E68" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
-      <c r="C48" s="17">
+    <row r="69" spans="3:5">
+      <c r="C69" s="15">
         <v>41323</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D69" s="14">
         <f>G32</f>
+        <v>24</v>
+      </c>
+      <c r="E69" s="14">
+        <f>G59</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="15">
+        <v>41324</v>
+      </c>
+      <c r="D70" s="14">
+        <f>H32</f>
+        <v>20</v>
+      </c>
+      <c r="E70" s="14">
+        <f>H59</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="15">
+        <v>41325</v>
+      </c>
+      <c r="D71" s="14">
+        <f>I32</f>
+        <v>12</v>
+      </c>
+      <c r="E71" s="14">
+        <f>I59</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="15">
+        <v>41326</v>
+      </c>
+      <c r="D72" s="14">
+        <f>J32</f>
         <v>8</v>
       </c>
-      <c r="E48" s="16">
-        <f>G43</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="17">
-        <v>41324</v>
-      </c>
-      <c r="D49" s="16">
-        <f ca="1">H32</f>
-        <v>4.5</v>
-      </c>
-      <c r="E49" s="16">
-        <f>H43</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="C50" s="17">
-        <v>41325</v>
-      </c>
-      <c r="D50" s="16">
-        <f ca="1">I32</f>
-        <v>4.5</v>
-      </c>
-      <c r="E50" s="16">
-        <f>I43</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="C51" s="17">
-        <v>41326</v>
-      </c>
-      <c r="D51" s="16">
-        <f ca="1">J32</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="16">
-        <f>J43</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="17">
+      <c r="E72" s="14">
+        <f>J59</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="15">
         <v>41327</v>
       </c>
-      <c r="D52" s="16">
-        <f ca="1">K32</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="16">
-        <f>K43</f>
-        <v>10.5</v>
+      <c r="D73" s="14">
+        <f>K32</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="14">
+        <f>K59</f>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -1017,25 +1017,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94323840"/>
-        <c:axId val="94325376"/>
+        <c:axId val="83445248"/>
+        <c:axId val="83446784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94323840"/>
+        <c:axId val="83445248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94325376"/>
+        <c:crossAx val="83446784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94325376"/>
+        <c:axId val="83446784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1043,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94323840"/>
+        <c:crossAx val="83445248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1054,8 +1054,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737432"/>
-          <c:y val="0.43017169728783994"/>
+          <c:x val="0.70358202099737421"/>
+          <c:y val="0.43017169728784005"/>
           <c:w val="0.28934631459510268"/>
           <c:h val="0.31366825900341838"/>
         </c:manualLayout>
@@ -1066,7 +1066,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1082,8 +1082,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0652066016912475E-2"/>
-          <c:y val="8.9589878188303412E-2"/>
+          <c:x val="9.0652066016912503E-2"/>
+          <c:y val="8.9589878188303454E-2"/>
           <c:w val="0.50605584698953865"/>
           <c:h val="0.64173685981560002"/>
         </c:manualLayout>
@@ -1223,25 +1223,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94526464"/>
-        <c:axId val="94552832"/>
+        <c:axId val="84974976"/>
+        <c:axId val="84984960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94526464"/>
+        <c:axId val="84974976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94552832"/>
+        <c:crossAx val="84984960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94552832"/>
+        <c:axId val="84984960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1249,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94526464"/>
+        <c:crossAx val="84974976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1263,7 +1263,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2639,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C21:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>Resouces</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Stoffe</t>
   </si>
   <si>
-    <t>Tobbe</t>
-  </si>
-  <si>
     <t>Mattias</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>CountDown</t>
   </si>
   <si>
-    <t>GameSound</t>
-  </si>
-  <si>
     <t>Game Sound</t>
   </si>
   <si>
@@ -165,15 +159,9 @@
     <t>Magnus/Tobias/Stoffe</t>
   </si>
   <si>
-    <t>Car collision</t>
-  </si>
-  <si>
     <t>Start position</t>
   </si>
   <si>
-    <t>Car collsion</t>
-  </si>
-  <si>
     <t>Övning 4 Manne</t>
   </si>
   <si>
@@ -223,6 +211,27 @@
   </si>
   <si>
     <t>Specialare:</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Refaktorisera</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Förbättra AI</t>
+  </si>
+  <si>
+    <t>Magnus/Fidde</t>
+  </si>
+  <si>
+    <t>Alla</t>
+  </si>
+  <si>
+    <t>Skriva in i XNA</t>
   </si>
 </sst>
 </file>
@@ -1017,25 +1026,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83445248"/>
-        <c:axId val="83446784"/>
+        <c:axId val="91899392"/>
+        <c:axId val="91900928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83445248"/>
+        <c:axId val="91899392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83446784"/>
+        <c:crossAx val="91900928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83446784"/>
+        <c:axId val="91900928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1052,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83445248"/>
+        <c:crossAx val="91899392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1054,8 +1063,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737421"/>
-          <c:y val="0.43017169728784005"/>
+          <c:x val="0.7035820209973741"/>
+          <c:y val="0.43017169728784022"/>
           <c:w val="0.28934631459510268"/>
           <c:h val="0.31366825900341838"/>
         </c:manualLayout>
@@ -1066,7 +1075,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1082,8 +1091,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0652066016912503E-2"/>
-          <c:y val="8.9589878188303454E-2"/>
+          <c:x val="9.065206601691253E-2"/>
+          <c:y val="8.9589878188303496E-2"/>
           <c:w val="0.50605584698953865"/>
           <c:h val="0.64173685981560002"/>
         </c:manualLayout>
@@ -1204,44 +1213,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84974976"/>
-        <c:axId val="84984960"/>
+        <c:axId val="92511616"/>
+        <c:axId val="92521600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84974976"/>
+        <c:axId val="92511616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84984960"/>
+        <c:crossAx val="92521600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84984960"/>
+        <c:axId val="92521600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1258,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84974976"/>
+        <c:crossAx val="92511616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1263,7 +1272,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1624,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D26"/>
+  <dimension ref="B4:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1639,13 +1648,13 @@
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1653,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
@@ -1664,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
@@ -1675,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
@@ -1686,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="10">
         <v>4</v>
@@ -1697,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="10">
         <v>3</v>
@@ -1708,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10">
         <v>4</v>
@@ -1719,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
@@ -1730,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -1741,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1752,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1761,7 +1770,7 @@
     <row r="15" spans="2:4" ht="18.75">
       <c r="B15" s="10"/>
       <c r="C15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -1769,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1780,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1794,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1805,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1816,7 +1825,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1827,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1838,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1849,32 +1858,57 @@
         <v>17</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25">
-        <v>18</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26">
         <v>19</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2022,7 @@
     </row>
     <row r="9" spans="3:11">
       <c r="F9" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -2008,7 +2042,7 @@
     </row>
     <row r="10" spans="3:11">
       <c r="F10" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -2028,7 +2062,7 @@
     </row>
     <row r="11" spans="3:11">
       <c r="F11" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
@@ -2048,7 +2082,7 @@
     </row>
     <row r="12" spans="3:11">
       <c r="F12" s="54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -2068,7 +2102,7 @@
     </row>
     <row r="13" spans="3:11">
       <c r="F13" s="56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="22">
         <v>3</v>
@@ -2111,22 +2145,22 @@
     </row>
     <row r="16" spans="3:11" ht="24" thickBot="1">
       <c r="C16" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="3:11" ht="15.75" thickBot="1">
       <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="60" t="s">
         <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>11</v>
       </c>
       <c r="G17" s="61">
         <v>41316</v>
@@ -2149,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="40">
         <v>3</v>
@@ -2178,10 +2212,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="41">
         <v>1</v>
@@ -2207,10 +2241,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="41">
         <v>2</v>
@@ -2236,10 +2270,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="41">
         <v>2</v>
@@ -2265,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="41">
         <v>2</v>
@@ -2294,10 +2328,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="41">
         <v>5</v>
@@ -2323,10 +2357,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="41">
         <v>2</v>
@@ -2352,10 +2386,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="41">
         <v>0.5</v>
@@ -2381,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>3</v>
@@ -2410,10 +2444,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="41">
         <v>6</v>
@@ -2439,10 +2473,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="42">
         <v>1</v>
@@ -2468,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>4</v>
@@ -2497,10 +2531,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="43">
         <v>0.5</v>
@@ -2551,13 +2585,13 @@
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="3:5">
@@ -2637,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C21:K73"/>
+  <dimension ref="C21:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2651,6 +2685,7 @@
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" spans="3:11" ht="15.75" thickBot="1"/>
@@ -2764,7 +2799,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="19" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G27" s="4">
         <v>3</v>
@@ -2787,7 +2822,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G28" s="4">
         <v>3</v>
@@ -2810,7 +2845,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
@@ -2833,7 +2868,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="16" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
@@ -2856,7 +2891,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="22">
         <v>3</v>
@@ -2900,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:13">
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -2911,25 +2946,25 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="3:11" ht="24" thickBot="1">
+    <row r="34" spans="3:13" ht="24" thickBot="1">
       <c r="C34" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:13">
       <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G35" s="70">
         <v>41323</v>
@@ -2947,15 +2982,15 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" spans="3:13">
       <c r="C36" s="64">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -2976,205 +3011,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:13">
       <c r="C37" s="64">
         <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" s="4">
         <v>1.5</v>
       </c>
       <c r="G37" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J37" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K37" s="48">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
       <c r="C38" s="64">
         <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="F38" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I38" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J38" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K38" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11">
+        <v>0.5</v>
+      </c>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="3:13">
       <c r="C39" s="64">
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="3:13">
       <c r="C40" s="64">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11">
+        <v>3</v>
+      </c>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="3:13">
       <c r="C41" s="72">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="73"/>
+        <v>68</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="F41" s="73">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="73">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="73">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="73">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="73">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K41" s="74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="3:13">
       <c r="C42" s="65">
         <v>19</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F42" s="26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11">
-      <c r="C43" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76">
-        <v>1</v>
-      </c>
-      <c r="G43" s="76">
-        <v>1</v>
-      </c>
-      <c r="H43" s="76">
-        <v>1</v>
-      </c>
-      <c r="I43" s="76">
-        <v>1</v>
-      </c>
-      <c r="J43" s="76">
-        <v>1</v>
-      </c>
-      <c r="K43" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11">
-      <c r="C44" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" s="72">
+        <v>23</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" s="75" t="s">
+        <v>64</v>
+      </c>
       <c r="D44" s="76" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E44" s="76"/>
       <c r="F44" s="76">
@@ -3196,10 +3246,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:13">
       <c r="C45" s="75"/>
       <c r="D45" s="76" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E45" s="76"/>
       <c r="F45" s="76">
@@ -3221,10 +3271,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:13">
       <c r="C46" s="75"/>
       <c r="D46" s="76" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E46" s="76"/>
       <c r="F46" s="76">
@@ -3246,10 +3296,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:13">
       <c r="C47" s="75"/>
       <c r="D47" s="76" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E47" s="76"/>
       <c r="F47" s="76">
@@ -3271,10 +3321,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:13">
       <c r="C48" s="75"/>
       <c r="D48" s="76" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E48" s="76"/>
       <c r="F48" s="76">
@@ -3299,7 +3349,7 @@
     <row r="49" spans="3:11">
       <c r="C49" s="75"/>
       <c r="D49" s="76" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E49" s="76"/>
       <c r="F49" s="76">
@@ -3324,7 +3374,7 @@
     <row r="50" spans="3:11">
       <c r="C50" s="75"/>
       <c r="D50" s="76" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E50" s="76"/>
       <c r="F50" s="76">
@@ -3349,7 +3399,7 @@
     <row r="51" spans="3:11">
       <c r="C51" s="75"/>
       <c r="D51" s="76" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E51" s="76"/>
       <c r="F51" s="76">
@@ -3374,7 +3424,7 @@
     <row r="52" spans="3:11">
       <c r="C52" s="75"/>
       <c r="D52" s="76" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E52" s="76"/>
       <c r="F52" s="76">
@@ -3399,7 +3449,7 @@
     <row r="53" spans="3:11">
       <c r="C53" s="75"/>
       <c r="D53" s="76" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E53" s="76"/>
       <c r="F53" s="76">
@@ -3424,7 +3474,7 @@
     <row r="54" spans="3:11">
       <c r="C54" s="75"/>
       <c r="D54" s="76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E54" s="76"/>
       <c r="F54" s="76">
@@ -3449,7 +3499,7 @@
     <row r="55" spans="3:11">
       <c r="C55" s="75"/>
       <c r="D55" s="76" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E55" s="76"/>
       <c r="F55" s="76">
@@ -3474,7 +3524,7 @@
     <row r="56" spans="3:11">
       <c r="C56" s="75"/>
       <c r="D56" s="76" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E56" s="76"/>
       <c r="F56" s="76">
@@ -3499,7 +3549,7 @@
     <row r="57" spans="3:11">
       <c r="C57" s="75"/>
       <c r="D57" s="76" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E57" s="76"/>
       <c r="F57" s="76">
@@ -3521,66 +3571,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C58" s="78"/>
-      <c r="D58" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79">
-        <v>1</v>
-      </c>
-      <c r="G58" s="79">
-        <v>1</v>
-      </c>
-      <c r="H58" s="79">
-        <v>1</v>
-      </c>
-      <c r="I58" s="79">
-        <v>1</v>
-      </c>
-      <c r="J58" s="79">
-        <v>1</v>
-      </c>
-      <c r="K58" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11">
-      <c r="F59" s="10">
-        <f>SUM(F36:F58)</f>
-        <v>26.5</v>
-      </c>
-      <c r="G59" s="14">
-        <f t="shared" ref="G59:K59" si="0">SUM(G36:G58)</f>
-        <v>26.5</v>
-      </c>
-      <c r="H59" s="14">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="I59" s="14">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="J59" s="14">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="K59" s="14">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
+    <row r="58" spans="3:11">
+      <c r="C58" s="75"/>
+      <c r="D58" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76">
+        <v>1</v>
+      </c>
+      <c r="G58" s="76">
+        <v>1</v>
+      </c>
+      <c r="H58" s="76">
+        <v>1</v>
+      </c>
+      <c r="I58" s="76">
+        <v>1</v>
+      </c>
+      <c r="J58" s="76">
+        <v>1</v>
+      </c>
+      <c r="K58" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C59" s="78"/>
+      <c r="D59" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79">
+        <v>1</v>
+      </c>
+      <c r="G59" s="79">
+        <v>1</v>
+      </c>
+      <c r="H59" s="79">
+        <v>1</v>
+      </c>
+      <c r="I59" s="79">
+        <v>1</v>
+      </c>
+      <c r="J59" s="79">
+        <v>1</v>
+      </c>
+      <c r="K59" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11">
+      <c r="F60" s="10">
+        <f>SUM(F36:F59)</f>
+        <v>24.5</v>
+      </c>
+      <c r="G60" s="14">
+        <f>SUM(G36:G59)</f>
+        <v>23</v>
+      </c>
+      <c r="H60" s="14">
+        <f>SUM(H36:H59)</f>
+        <v>23</v>
+      </c>
+      <c r="I60" s="14">
+        <f>SUM(I36:I59)</f>
+        <v>23</v>
+      </c>
+      <c r="J60" s="14">
+        <f>SUM(J36:J59)</f>
+        <v>23</v>
+      </c>
+      <c r="K60" s="14">
+        <f>SUM(K36:K59)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="3:5">
       <c r="C68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="E68" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="69" spans="3:5">
@@ -3592,8 +3667,8 @@
         <v>24</v>
       </c>
       <c r="E69" s="14">
-        <f>G59</f>
-        <v>26.5</v>
+        <f>G60</f>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="3:5">
@@ -3605,8 +3680,8 @@
         <v>20</v>
       </c>
       <c r="E70" s="14">
-        <f>H59</f>
-        <v>26.5</v>
+        <f>H60</f>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="3:5">
@@ -3618,8 +3693,8 @@
         <v>12</v>
       </c>
       <c r="E71" s="14">
-        <f>I59</f>
-        <v>26.5</v>
+        <f>I60</f>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="3:5">
@@ -3631,8 +3706,8 @@
         <v>8</v>
       </c>
       <c r="E72" s="14">
-        <f>J59</f>
-        <v>26.5</v>
+        <f>J60</f>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="3:5">
@@ -3644,8 +3719,8 @@
         <v>0</v>
       </c>
       <c r="E73" s="14">
-        <f>K59</f>
-        <v>26.5</v>
+        <f>K60</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -1026,25 +1026,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91899392"/>
-        <c:axId val="91900928"/>
+        <c:axId val="95438336"/>
+        <c:axId val="95439872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91899392"/>
+        <c:axId val="95438336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91900928"/>
+        <c:crossAx val="95439872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91900928"/>
+        <c:axId val="95439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1052,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91899392"/>
+        <c:crossAx val="95438336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,8 +1063,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7035820209973741"/>
-          <c:y val="0.43017169728784022"/>
+          <c:x val="0.70358202099737399"/>
+          <c:y val="0.43017169728784038"/>
           <c:w val="0.28934631459510268"/>
           <c:h val="0.31366825900341838"/>
         </c:manualLayout>
@@ -1075,7 +1075,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1091,8 +1091,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.065206601691253E-2"/>
-          <c:y val="8.9589878188303496E-2"/>
+          <c:x val="9.0652066016912558E-2"/>
+          <c:y val="8.9589878188303523E-2"/>
           <c:w val="0.50605584698953865"/>
           <c:h val="0.64173685981560002"/>
         </c:manualLayout>
@@ -1213,44 +1213,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92511616"/>
-        <c:axId val="92521600"/>
+        <c:axId val="95645056"/>
+        <c:axId val="95663232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92511616"/>
+        <c:axId val="95645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92521600"/>
+        <c:crossAx val="95663232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92521600"/>
+        <c:axId val="95663232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,21 +1258,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92511616"/>
+        <c:crossAx val="95645056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2674,7 +2673,7 @@
   <dimension ref="C21:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3028,16 +3027,16 @@
         <v>0.5</v>
       </c>
       <c r="H37" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K37" s="48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:13">
@@ -3084,19 +3083,19 @@
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="14"/>
     </row>
@@ -3623,28 +3622,28 @@
     </row>
     <row r="60" spans="3:11">
       <c r="F60" s="10">
-        <f>SUM(F36:F59)</f>
+        <f t="shared" ref="F60:K60" si="0">SUM(F36:F59)</f>
         <v>24.5</v>
       </c>
       <c r="G60" s="14">
-        <f>SUM(G36:G59)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="H60" s="14">
-        <f>SUM(H36:H59)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
       <c r="I60" s="14">
-        <f>SUM(I36:I59)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
       <c r="J60" s="14">
-        <f>SUM(J36:J59)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
       <c r="K60" s="14">
-        <f>SUM(K36:K59)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>21.5</v>
       </c>
     </row>
     <row r="68" spans="3:5">
@@ -3668,7 +3667,7 @@
       </c>
       <c r="E69" s="14">
         <f>G60</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="3:5">
@@ -3681,7 +3680,7 @@
       </c>
       <c r="E70" s="14">
         <f>H60</f>
-        <v>23</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="71" spans="3:5">
@@ -3694,7 +3693,7 @@
       </c>
       <c r="E71" s="14">
         <f>I60</f>
-        <v>23</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="72" spans="3:5">
@@ -3707,7 +3706,7 @@
       </c>
       <c r="E72" s="14">
         <f>J60</f>
-        <v>23</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="73" spans="3:5">
@@ -3720,7 +3719,7 @@
       </c>
       <c r="E73" s="14">
         <f>K60</f>
-        <v>23</v>
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>Resouces</t>
   </si>
@@ -231,7 +231,10 @@
     <t>Alla</t>
   </si>
   <si>
-    <t>Skriva in i XNA</t>
+    <t>Skriva in sitt namn</t>
+  </si>
+  <si>
+    <t>Tobias/Stoffe</t>
   </si>
 </sst>
 </file>
@@ -1026,25 +1029,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95438336"/>
-        <c:axId val="95439872"/>
+        <c:axId val="82134528"/>
+        <c:axId val="82136064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95438336"/>
+        <c:axId val="82134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95439872"/>
+        <c:crossAx val="82136064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95439872"/>
+        <c:axId val="82136064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1055,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95438336"/>
+        <c:crossAx val="82134528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,8 +1066,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737399"/>
-          <c:y val="0.43017169728784038"/>
+          <c:x val="0.70358202099737388"/>
+          <c:y val="0.43017169728784049"/>
           <c:w val="0.28934631459510268"/>
           <c:h val="0.31366825900341838"/>
         </c:manualLayout>
@@ -1075,7 +1078,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1091,8 +1094,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0652066016912558E-2"/>
-          <c:y val="8.9589878188303523E-2"/>
+          <c:x val="9.0652066016912572E-2"/>
+          <c:y val="8.9589878188303537E-2"/>
           <c:w val="0.50605584698953865"/>
           <c:h val="0.64173685981560002"/>
         </c:manualLayout>
@@ -1213,44 +1216,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95645056"/>
-        <c:axId val="95663232"/>
+        <c:axId val="82484608"/>
+        <c:axId val="82494592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95645056"/>
+        <c:axId val="82484608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95663232"/>
+        <c:crossAx val="82494592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95663232"/>
+        <c:axId val="82494592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1261,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95645056"/>
+        <c:crossAx val="82484608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1271,7 +1274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2673,7 +2676,7 @@
   <dimension ref="C21:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2995,19 +2998,19 @@
         <v>1</v>
       </c>
       <c r="G36" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H36" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K36" s="48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="3:13">
@@ -3021,10 +3024,10 @@
         <v>46</v>
       </c>
       <c r="F37" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
         <v>0</v>
@@ -3053,19 +3056,19 @@
         <v>0.5</v>
       </c>
       <c r="G38" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K38" s="48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M38" s="14"/>
     </row>
@@ -3197,25 +3200,25 @@
         <v>71</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F43" s="69">
         <v>0.5</v>
       </c>
       <c r="G43" s="69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H43" s="69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I43" s="69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J43" s="69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K43" s="66">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:13">
@@ -3623,27 +3626,27 @@
     <row r="60" spans="3:11">
       <c r="F60" s="10">
         <f t="shared" ref="F60:K60" si="0">SUM(F36:F59)</f>
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="G60" s="14">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="I60" s="14">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="K60" s="14">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="3:5">
@@ -3667,7 +3670,7 @@
       </c>
       <c r="E69" s="14">
         <f>G60</f>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="3:5">
@@ -3680,7 +3683,7 @@
       </c>
       <c r="E70" s="14">
         <f>H60</f>
-        <v>21.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="3:5">
@@ -3693,7 +3696,7 @@
       </c>
       <c r="E71" s="14">
         <f>I60</f>
-        <v>21.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="3:5">
@@ -3706,7 +3709,7 @@
       </c>
       <c r="E72" s="14">
         <f>J60</f>
-        <v>21.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="3:5">
@@ -3719,7 +3722,7 @@
       </c>
       <c r="E73" s="14">
         <f>K60</f>
-        <v>21.5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>Resouces</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Create Pause Menu</t>
   </si>
   <si>
-    <t>Mangnus</t>
-  </si>
-  <si>
     <t>Magnus/Tobias/Stoffe</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Magnus/Fidde/Mattias</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -792,11 +792,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -877,8 +903,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,25 +1071,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84428288"/>
-        <c:axId val="84429824"/>
+        <c:axId val="87447424"/>
+        <c:axId val="87448960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84428288"/>
+        <c:axId val="87447424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84429824"/>
+        <c:crossAx val="87448960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84429824"/>
+        <c:axId val="87448960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1097,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84428288"/>
+        <c:crossAx val="87447424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,8 +1108,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737377"/>
-          <c:y val="0.43017169728784066"/>
+          <c:x val="0.70358202099737366"/>
+          <c:y val="0.43017169728784083"/>
           <c:w val="0.28934631459510268"/>
           <c:h val="0.31366825900341838"/>
         </c:manualLayout>
@@ -1089,7 +1120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1105,8 +1136,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.06520660169126E-2"/>
-          <c:y val="8.9589878188303565E-2"/>
+          <c:x val="9.0652066016912627E-2"/>
+          <c:y val="8.9589878188303579E-2"/>
           <c:w val="0.50605584698953865"/>
           <c:h val="0.64173685981560002"/>
         </c:manualLayout>
@@ -1246,25 +1277,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85040512"/>
-        <c:axId val="85050496"/>
+        <c:axId val="85782528"/>
+        <c:axId val="85784064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85040512"/>
+        <c:axId val="85782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85050496"/>
+        <c:crossAx val="85784064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85050496"/>
+        <c:axId val="85784064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,21 +1303,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85040512"/>
+        <c:crossAx val="85782528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1650,7 +1680,7 @@
   <dimension ref="B4:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1886,7 +1916,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1897,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>0.5</v>
@@ -1908,7 +1938,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
@@ -1919,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1930,7 +1960,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>0.5</v>
@@ -1941,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31">
         <v>0.5</v>
@@ -1956,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -2709,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C21:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:K59"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2859,7 +2889,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G28" s="4">
         <v>3</v>
@@ -2905,7 +2935,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
@@ -3027,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -3056,7 +3086,7 @@
         <v>42</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -3085,7 +3115,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="4">
         <v>0.5</v>
@@ -3142,10 +3172,10 @@
         <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
@@ -3172,7 +3202,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>4</v>
@@ -3202,10 +3232,10 @@
         <v>23</v>
       </c>
       <c r="D42" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="F42" s="69">
         <v>0.5</v>
@@ -3229,10 +3259,10 @@
     </row>
     <row r="43" spans="3:13">
       <c r="C43" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" s="74"/>
       <c r="F43" s="74">
@@ -3258,7 +3288,7 @@
     <row r="44" spans="3:13">
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74">
@@ -3284,7 +3314,7 @@
     <row r="45" spans="3:13">
       <c r="C45" s="73"/>
       <c r="D45" s="74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" s="74"/>
       <c r="F45" s="74">
@@ -3310,7 +3340,7 @@
     <row r="46" spans="3:13">
       <c r="C46" s="73"/>
       <c r="D46" s="74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="74"/>
       <c r="F46" s="74">
@@ -3336,7 +3366,7 @@
     <row r="47" spans="3:13">
       <c r="C47" s="73"/>
       <c r="D47" s="74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="74"/>
       <c r="F47" s="74">
@@ -3362,7 +3392,7 @@
     <row r="48" spans="3:13">
       <c r="C48" s="73"/>
       <c r="D48" s="74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="74"/>
       <c r="F48" s="74">
@@ -3388,7 +3418,7 @@
     <row r="49" spans="3:12">
       <c r="C49" s="73"/>
       <c r="D49" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="74"/>
       <c r="F49" s="74">
@@ -3414,7 +3444,7 @@
     <row r="50" spans="3:12">
       <c r="C50" s="73"/>
       <c r="D50" s="74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="74"/>
       <c r="F50" s="74">
@@ -3440,7 +3470,7 @@
     <row r="51" spans="3:12">
       <c r="C51" s="73"/>
       <c r="D51" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="74"/>
       <c r="F51" s="74">
@@ -3466,7 +3496,7 @@
     <row r="52" spans="3:12">
       <c r="C52" s="73"/>
       <c r="D52" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="74"/>
       <c r="F52" s="74">
@@ -3492,7 +3522,7 @@
     <row r="53" spans="3:12">
       <c r="C53" s="73"/>
       <c r="D53" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="74"/>
       <c r="F53" s="74">
@@ -3518,7 +3548,7 @@
     <row r="54" spans="3:12">
       <c r="C54" s="73"/>
       <c r="D54" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E54" s="74"/>
       <c r="F54" s="74">
@@ -3544,7 +3574,7 @@
     <row r="55" spans="3:12">
       <c r="C55" s="73"/>
       <c r="D55" s="74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" s="74"/>
       <c r="F55" s="74">
@@ -3570,7 +3600,7 @@
     <row r="56" spans="3:12">
       <c r="C56" s="73"/>
       <c r="D56" s="74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" s="74"/>
       <c r="F56" s="74">
@@ -3596,7 +3626,7 @@
     <row r="57" spans="3:12">
       <c r="C57" s="73"/>
       <c r="D57" s="74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="74"/>
       <c r="F57" s="74">
@@ -3622,7 +3652,7 @@
     <row r="58" spans="3:12" ht="15.75" thickBot="1">
       <c r="C58" s="76"/>
       <c r="D58" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" s="77"/>
       <c r="F58" s="77">
@@ -3755,22 +3785,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:K22"/>
+  <dimension ref="C3:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="4" spans="3:11" ht="31.5">
+    <row r="3" spans="3:7" ht="15.75" thickBot="1"/>
+    <row r="4" spans="3:7" ht="32.25" thickBot="1">
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -3778,269 +3808,133 @@
         <v>0</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="3:11" ht="31.5">
+    </row>
+    <row r="5" spans="3:7" ht="31.5">
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="46">
         <v>41323</v>
       </c>
-      <c r="H5" s="5">
-        <v>41324</v>
-      </c>
-      <c r="I5" s="5">
-        <v>41325</v>
-      </c>
-      <c r="J5" s="5">
-        <v>41326</v>
-      </c>
-      <c r="K5" s="5">
-        <v>41327</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11">
+    </row>
+    <row r="6" spans="3:7">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>6</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
+      <c r="G6" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>6</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11">
+      <c r="F7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4">
-        <v>6</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
+      <c r="G8" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="4">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>6</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
+      <c r="G9" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>6</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4">
-        <v>6</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
+      <c r="F10" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>6</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>6</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11">
+      <c r="G11" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>6</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4">
-        <v>6</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="15.75" thickBot="1">
+      <c r="F12" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" thickBot="1">
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="22">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>6</v>
-      </c>
-      <c r="I13" s="22">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>6</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="24" thickBot="1">
+      <c r="G13" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="24" thickBot="1">
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="23">
-        <f>SUM(G6:K13)/6</f>
-        <v>24</v>
-      </c>
-      <c r="H14" s="23">
-        <f>SUM(H6:L13)/6</f>
-        <v>20</v>
-      </c>
-      <c r="I14" s="23">
-        <f>SUM(I6:M13)/6</f>
-        <v>12</v>
-      </c>
-      <c r="J14" s="23">
-        <f>SUM(J6:N13)/6</f>
-        <v>8</v>
-      </c>
-      <c r="K14" s="79">
-        <f>SUM(K6:O13)/6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11">
+      <c r="G14" s="79">
+        <f>SUM(G6:G13)/6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="3:11" ht="24" thickBot="1">
+    </row>
+    <row r="16" spans="3:7" ht="24" thickBot="1">
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="3:11">
+    </row>
+    <row r="17" spans="3:7" ht="15.75" thickBot="1">
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
@@ -4053,122 +3947,88 @@
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="85">
         <v>41323</v>
       </c>
-      <c r="H17" s="70">
-        <v>41324</v>
-      </c>
-      <c r="I17" s="70">
-        <v>41325</v>
-      </c>
-      <c r="J17" s="70">
-        <v>41326</v>
-      </c>
-      <c r="K17" s="71">
-        <v>41327</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="64">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="82">
+        <v>11</v>
+      </c>
+      <c r="D18" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="82">
         <v>0.5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="81">
         <v>0.5</v>
       </c>
-      <c r="H18" s="4">
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="82">
+        <v>23</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="82">
         <v>0.5</v>
       </c>
-      <c r="I18" s="4">
+      <c r="G19" s="82">
         <v>0.5</v>
       </c>
-      <c r="J18" s="4">
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="82">
+        <v>24</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="82">
         <v>0.5</v>
       </c>
-      <c r="K18" s="48">
+      <c r="G20" s="86">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="64">
-        <v>17</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
-      <c r="C20" s="80"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-    </row>
-    <row r="21" spans="3:11">
-      <c r="C21" s="80"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14">
-        <f>SUM(F18:F19)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="14">
-        <f>SUM(G18:G19)</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="14">
-        <f>SUM(H18:H19)</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="14">
-        <f>SUM(I18:I19)</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="14">
-        <f>SUM(J18:J19)</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="14">
-        <f>SUM(K18:K19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
+    <row r="21" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C21" s="83">
+        <v>25</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="84">
+        <v>2</v>
+      </c>
+      <c r="G21" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
       <c r="C22" s="14"/>
+      <c r="F22" s="14">
+        <f>SUM(F18:F21)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G22" s="14">
+        <f>SUM(G18:G21)</f>
+        <v>3.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Game BurnDownChart.xlsx
+++ b/doc/Game BurnDownChart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>Resouces</t>
   </si>
@@ -241,10 +241,13 @@
     <t>Inte skriva ut P2 om bara en player</t>
   </si>
   <si>
-    <t>Magnus/Fidde/Mattias</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Fixa till map testerna</t>
+  </si>
+  <si>
+    <t>Fixa till map tester</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -816,6 +819,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -904,12 +920,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,25 +1087,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87447424"/>
-        <c:axId val="87448960"/>
+        <c:axId val="89282432"/>
+        <c:axId val="89283968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87447424"/>
+        <c:axId val="89282432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87448960"/>
+        <c:crossAx val="89283968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87448960"/>
+        <c:axId val="89283968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1113,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87447424"/>
+        <c:crossAx val="89282432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1108,8 +1124,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70358202099737366"/>
-          <c:y val="0.43017169728784083"/>
+          <c:x val="0.70358202099737355"/>
+          <c:y val="0.43017169728784099"/>
           <c:w val="0.28934631459510268"/>
           <c:h val="0.31366825900341838"/>
         </c:manualLayout>
@@ -1120,7 +1136,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1136,8 +1152,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0652066016912627E-2"/>
-          <c:y val="8.9589878188303579E-2"/>
+          <c:x val="9.0652066016912641E-2"/>
+          <c:y val="8.958987818830362E-2"/>
           <c:w val="0.50605584698953865"/>
           <c:h val="0.64173685981560002"/>
         </c:manualLayout>
@@ -1277,25 +1293,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85782528"/>
-        <c:axId val="85784064"/>
+        <c:axId val="89382912"/>
+        <c:axId val="89384448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85782528"/>
+        <c:axId val="89382912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85784064"/>
+        <c:crossAx val="89384448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85784064"/>
+        <c:axId val="89384448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1319,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85782528"/>
+        <c:crossAx val="89382912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,7 +1332,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1677,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D31"/>
+  <dimension ref="B4:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1974,6 +1990,17 @@
         <v>73</v>
       </c>
       <c r="D31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32">
         <v>0.5</v>
       </c>
     </row>
@@ -3785,10 +3812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:G22"/>
+  <dimension ref="C3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3927,14 +3954,14 @@
     </row>
     <row r="16" spans="3:7" ht="24" thickBot="1">
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1">
+    <row r="17" spans="3:7">
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
@@ -3947,21 +3974,21 @@
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="84">
         <v>41323</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="82">
-        <v>11</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="82">
+      <c r="C18" s="81">
+        <v>23</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="81">
         <v>0.5</v>
       </c>
       <c r="G18" s="81">
@@ -3969,65 +3996,76 @@
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="82">
-        <v>23</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="C19" s="81">
+        <v>26</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="81">
+        <v>27</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="81">
+        <v>24</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C22" s="82">
+        <v>25</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="83">
+        <v>2.5</v>
+      </c>
+      <c r="G22" s="82">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="14">
+        <f>SUM(F18:F22)</f>
         <v>4</v>
       </c>
-      <c r="F19" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="82">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="82">
-        <v>24</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="86">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C21" s="83">
-        <v>25</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="84">
-        <v>2</v>
-      </c>
-      <c r="G21" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="14"/>
-      <c r="F22" s="14">
-        <f>SUM(F18:F21)</f>
-        <v>3.5</v>
-      </c>
-      <c r="G22" s="14">
-        <f>SUM(G18:G21)</f>
-        <v>3.5</v>
+      <c r="G23" s="14">
+        <f>SUM(G18:G22)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
